--- a/AgentProxy/resources/customer/customer#2.xlsx
+++ b/AgentProxy/resources/customer/customer#2.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\MAS-GUI\AgentProxy\resources\customer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="5985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5985"/>
   </bookViews>
   <sheets>
     <sheet name="job1" sheetId="11" r:id="rId1"/>
@@ -18,11 +13,12 @@
     <sheet name="job4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -590,20 +586,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table126" displayName="Table126" ref="A1:C2" totalsRowShown="0" headerRowCellStyle="20% - Accent4" dataCellStyle="20% - Accent4">
-  <autoFilter ref="A1:C2"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table126" displayName="Table126" ref="A1:B2" totalsRowShown="0" headerRowCellStyle="20% - Accent4" dataCellStyle="20% - Accent4">
+  <autoFilter ref="A1:B2"/>
+  <tableColumns count="2">
     <tableColumn id="1" name="id"/>
     <tableColumn id="3" name="quantity"/>
-    <tableColumn id="6" name="CPN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table327" displayName="Table327" ref="D1:D2" totalsRowShown="0">
-  <autoFilter ref="D1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table327" displayName="Table327" ref="C1:C2" totalsRowShown="0">
+  <autoFilter ref="C1:C2"/>
   <tableColumns count="1">
     <tableColumn id="1" name="Penalty Rate"/>
   </tableColumns>
@@ -943,15 +938,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,9 +956,6 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -976,9 +967,6 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
         <v>2.2999999999999998</v>
       </c>
     </row>
